--- a/storage/app/plantillas/Plantilla_Listas.xlsx
+++ b/storage/app/plantillas/Plantilla_Listas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\PC2\storage\app\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FFD0CC-3316-4DD7-9DE0-0A5C9FC5A90C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E009D4B3-A19D-486C-8165-10AEAC6A72F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,10 +79,10 @@
     <t>SAB</t>
   </si>
   <si>
-    <t>FACULTAD DE INGENIERÍA</t>
+    <t>LISTADO PARA ASISTENCIA</t>
   </si>
   <si>
-    <t>LISTADO PARA ASISTENCIA</t>
+    <t>DEPARTAMENTO FÍSICO MATEMÁTICO</t>
   </si>
 </sst>
 </file>
@@ -331,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -407,6 +407,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -415,15 +418,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -490,23 +484,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>20187</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>99231</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>122829</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>150125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>148703</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>89706</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>133063</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>96881</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 4">
+        <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE7F9B4C-6EF9-9E24-5D21-61573829FA87}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -522,8 +516,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10262832" y="99231"/>
-          <a:ext cx="742665" cy="1055000"/>
+          <a:off x="9962865" y="327546"/>
+          <a:ext cx="1647965" cy="656439"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -824,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AJ61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:AI2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -838,229 +832,229 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="29"/>
-      <c r="AG1" s="29"/>
-      <c r="AH1" s="29"/>
-      <c r="AI1" s="29"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="30"/>
       <c r="AJ1" s="5"/>
     </row>
     <row r="2" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="5"/>
+    </row>
+    <row r="3" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="28"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="28"/>
+      <c r="AA3" s="28"/>
+      <c r="AB3" s="28"/>
+      <c r="AC3" s="28"/>
+      <c r="AD3" s="28"/>
+      <c r="AE3" s="28"/>
+      <c r="AF3" s="28"/>
+      <c r="AG3" s="28"/>
+      <c r="AH3" s="28"/>
+      <c r="AI3" s="28"/>
+      <c r="AJ3" s="5"/>
+    </row>
+    <row r="4" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B4" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="29"/>
-      <c r="AJ2" s="5"/>
-    </row>
-    <row r="3" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="27"/>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="27"/>
-      <c r="AC3" s="27"/>
-      <c r="AD3" s="27"/>
-      <c r="AE3" s="27"/>
-      <c r="AF3" s="27"/>
-      <c r="AG3" s="27"/>
-      <c r="AH3" s="27"/>
-      <c r="AI3" s="27"/>
-      <c r="AJ3" s="5"/>
-    </row>
-    <row r="4" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B4" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="29"/>
-      <c r="V4" s="29"/>
-      <c r="W4" s="29"/>
-      <c r="X4" s="29"/>
-      <c r="Y4" s="29"/>
-      <c r="Z4" s="29"/>
-      <c r="AA4" s="29"/>
-      <c r="AB4" s="29"/>
-      <c r="AC4" s="29"/>
-      <c r="AD4" s="29"/>
-      <c r="AE4" s="29"/>
-      <c r="AF4" s="29"/>
-      <c r="AG4" s="29"/>
-      <c r="AH4" s="29"/>
-      <c r="AI4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="30"/>
+      <c r="AA4" s="30"/>
+      <c r="AB4" s="30"/>
+      <c r="AC4" s="30"/>
+      <c r="AD4" s="30"/>
+      <c r="AE4" s="30"/>
+      <c r="AF4" s="30"/>
+      <c r="AG4" s="30"/>
+      <c r="AH4" s="30"/>
+      <c r="AI4" s="30"/>
       <c r="AJ4" s="5"/>
     </row>
     <row r="6" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
       <c r="H6" s="2"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="29" t="s">
+      <c r="M6" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
     </row>
     <row r="7" spans="2:36" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="28"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
     </row>
     <row r="8" spans="2:36" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="29" t="s">
+      <c r="M8" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
       <c r="R8" s="5"/>
-      <c r="S8" s="29" t="s">
+      <c r="S8" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="T8" s="29"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="27"/>
-      <c r="W8" s="27"/>
-      <c r="X8" s="27"/>
-      <c r="Y8" s="27"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="28"/>
       <c r="AC8" s="8" t="s">
         <v>13</v>
       </c>
@@ -1081,30 +1075,30 @@
       </c>
     </row>
     <row r="9" spans="2:36" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="29" t="s">
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
       <c r="N9" s="2"/>
       <c r="R9" s="5"/>
-      <c r="S9" s="29" t="s">
+      <c r="S9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29"/>
-      <c r="W9" s="29"/>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="29"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
       <c r="Z9" s="2">
         <v>4</v>
       </c>
@@ -2419,8 +2413,8 @@
     </row>
     <row r="45" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B45" s="22"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="31"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="15"/>
       <c r="E45" s="20"/>
       <c r="F45" s="20"/>
       <c r="G45" s="25"/>
@@ -2456,7 +2450,7 @@
     <row r="46" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B46" s="23"/>
       <c r="C46" s="24"/>
-      <c r="D46" s="32"/>
+      <c r="D46" s="27"/>
       <c r="E46" s="21"/>
       <c r="F46" s="21"/>
       <c r="G46" s="18"/>

--- a/storage/app/plantillas/Plantilla_Listas.xlsx
+++ b/storage/app/plantillas/Plantilla_Listas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\PC2\storage\app\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E009D4B3-A19D-486C-8165-10AEAC6A72F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BC5F83-0E03-405A-BF9A-136C0AA26668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>UNIVERSIDAD AUTONOMA DE SAN LUIS POTOSÍ</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>DEPARTAMENTO FÍSICO MATEMÁTICO</t>
+  </si>
+  <si>
+    <t>CLAVE MATERIA:</t>
   </si>
 </sst>
 </file>
@@ -440,23 +443,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>184244</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>177420</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1337481</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>6824</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>399194</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>124176</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 2">
+        <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE7F9B4C-6EF9-9E24-5D21-61573829FA87}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -472,8 +475,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="9525"/>
-          <a:ext cx="1337481" cy="8179132"/>
+          <a:off x="9799092" y="354841"/>
+          <a:ext cx="1647965" cy="656439"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -484,23 +487,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>122829</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>150125</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>150128</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>54591</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>133063</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>96881</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>422398</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>74067</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3">
+        <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE7F9B4C-6EF9-9E24-5D21-61573829FA87}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{975D0B03-BB33-D72A-8495-33687BE57BC8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -516,8 +519,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9962865" y="327546"/>
-          <a:ext cx="1647965" cy="656439"/>
+          <a:off x="150128" y="409433"/>
+          <a:ext cx="1207142" cy="913404"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -819,12 +822,12 @@
   <dimension ref="B1:AJ61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AI2"/>
+      <selection activeCell="W6" sqref="W6:AB6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="1" max="1" width="13.69921875" customWidth="1"/>
     <col min="2" max="2" width="6.796875" customWidth="1"/>
     <col min="3" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="36.796875" customWidth="1"/>
@@ -987,21 +990,32 @@
     </row>
     <row r="6" spans="2:36" x14ac:dyDescent="0.3">
       <c r="E6" s="30" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="F6" s="30"/>
       <c r="G6" s="30"/>
-      <c r="H6" s="2"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="30" t="s">
+      <c r="M6" s="5"/>
+      <c r="N6" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="T6" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="29"/>
+      <c r="AB6" s="29"/>
     </row>
     <row r="7" spans="2:36" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E7" s="30" t="s">
@@ -3024,16 +3038,18 @@
       <c r="AI61" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="20">
     <mergeCell ref="B1:AI1"/>
     <mergeCell ref="B2:AI2"/>
     <mergeCell ref="B3:AI3"/>
     <mergeCell ref="B4:AI4"/>
     <mergeCell ref="I7:V7"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="E6:G6"/>
     <mergeCell ref="E7:H7"/>
-    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="W6:AB6"/>
     <mergeCell ref="P8:Q8"/>
     <mergeCell ref="U8:Y8"/>
     <mergeCell ref="H8:J8"/>
